--- a/Data_clean/MCAS/Estados_US/Edos_USA_2016/KANSAS_2016.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2016/KANSAS_2016.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D953"/>
+  <dimension ref="A1:D947"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -439,7 +439,7 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C6">
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C7">
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>San José de Gracia</t>
+          <t>San José De Gracia</t>
         </is>
       </c>
       <c r="C8">
@@ -719,7 +719,7 @@
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C26">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C31">
@@ -966,7 +966,7 @@
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C45">
@@ -1018,7 +1018,7 @@
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C49">
@@ -1322,7 +1322,7 @@
     <row r="72">
       <c r="B72" t="inlineStr">
         <is>
-          <t>Coyame del Sotol</t>
+          <t>Coyame Del Sotol</t>
         </is>
       </c>
       <c r="C72">
@@ -1465,7 +1465,7 @@
     <row r="83">
       <c r="B83" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C83">
@@ -1491,7 +1491,7 @@
     <row r="85">
       <c r="B85" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C85">
@@ -1764,7 +1764,7 @@
     <row r="106">
       <c r="B106" t="inlineStr">
         <is>
-          <t>San Francisco de Conchos</t>
+          <t>San Francisco De Conchos</t>
         </is>
       </c>
       <c r="C106">
@@ -1777,7 +1777,7 @@
     <row r="107">
       <c r="B107" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C107">
@@ -1881,7 +1881,7 @@
     <row r="115">
       <c r="B115" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C115">
@@ -2094,7 +2094,7 @@
     <row r="131">
       <c r="B131" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C131">
@@ -2242,7 +2242,7 @@
     <row r="142">
       <c r="B142" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C142">
@@ -2268,7 +2268,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -2473,7 +2473,7 @@
     <row r="159">
       <c r="B159" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C159">
@@ -2655,7 +2655,7 @@
     <row r="173">
       <c r="B173" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C173">
@@ -2694,7 +2694,7 @@
     <row r="176">
       <c r="B176" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C176">
@@ -2785,7 +2785,7 @@
     <row r="183">
       <c r="B183" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C183">
@@ -2798,7 +2798,7 @@
     <row r="184">
       <c r="B184" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C184">
@@ -2811,7 +2811,7 @@
     <row r="185">
       <c r="B185" t="inlineStr">
         <is>
-          <t>San Pedro del Gallo</t>
+          <t>San Pedro Del Gallo</t>
         </is>
       </c>
       <c r="C185">
@@ -2941,12 +2941,12 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C195">
@@ -2972,7 +2972,7 @@
     <row r="197">
       <c r="B197" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C197">
@@ -3011,7 +3011,7 @@
     <row r="200">
       <c r="B200" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C200">
@@ -3089,7 +3089,7 @@
     <row r="206">
       <c r="B206" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C206">
@@ -3141,7 +3141,7 @@
     <row r="210">
       <c r="B210" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C210">
@@ -3323,7 +3323,7 @@
     <row r="224">
       <c r="B224" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C224">
@@ -3375,7 +3375,7 @@
     <row r="228">
       <c r="B228" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C228">
@@ -3518,7 +3518,7 @@
     <row r="239">
       <c r="B239" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C239">
@@ -3583,7 +3583,7 @@
     <row r="244">
       <c r="B244" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C244">
@@ -3596,7 +3596,7 @@
     <row r="245">
       <c r="B245" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C245">
@@ -3718,7 +3718,7 @@
     <row r="254">
       <c r="B254" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C254">
@@ -3731,7 +3731,7 @@
     <row r="255">
       <c r="B255" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C255">
@@ -3809,7 +3809,7 @@
     <row r="261">
       <c r="B261" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C261">
@@ -3848,7 +3848,7 @@
     <row r="264">
       <c r="B264" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C264">
@@ -3952,7 +3952,7 @@
     <row r="272">
       <c r="B272" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C272">
@@ -4004,7 +4004,7 @@
     <row r="276">
       <c r="B276" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C276">
@@ -4030,7 +4030,7 @@
     <row r="278">
       <c r="B278" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C278">
@@ -4043,7 +4043,7 @@
     <row r="279">
       <c r="B279" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C279">
@@ -4056,7 +4056,7 @@
     <row r="280">
       <c r="B280" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C280">
@@ -4069,7 +4069,7 @@
     <row r="281">
       <c r="B281" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C281">
@@ -4108,7 +4108,7 @@
     <row r="284">
       <c r="B284" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C284">
@@ -4165,7 +4165,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C288">
@@ -4191,7 +4191,7 @@
     <row r="290">
       <c r="B290" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C290">
@@ -4217,7 +4217,7 @@
     <row r="292">
       <c r="B292" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C292">
@@ -4230,7 +4230,7 @@
     <row r="293">
       <c r="B293" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C293">
@@ -4243,7 +4243,7 @@
     <row r="294">
       <c r="B294" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C294">
@@ -4256,7 +4256,7 @@
     <row r="295">
       <c r="B295" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C295">
@@ -4282,7 +4282,7 @@
     <row r="297">
       <c r="B297" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C297">
@@ -4295,7 +4295,7 @@
     <row r="298">
       <c r="B298" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C298">
@@ -4308,7 +4308,7 @@
     <row r="299">
       <c r="B299" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C299">
@@ -4360,7 +4360,7 @@
     <row r="303">
       <c r="B303" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C303">
@@ -4399,7 +4399,7 @@
     <row r="306">
       <c r="B306" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C306">
@@ -4464,7 +4464,7 @@
     <row r="311">
       <c r="B311" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C311">
@@ -4477,7 +4477,7 @@
     <row r="312">
       <c r="B312" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C312">
@@ -4490,7 +4490,7 @@
     <row r="313">
       <c r="B313" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C313">
@@ -4516,7 +4516,7 @@
     <row r="315">
       <c r="B315" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C315">
@@ -4672,7 +4672,7 @@
     <row r="327">
       <c r="B327" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C327">
@@ -4698,7 +4698,7 @@
     <row r="329">
       <c r="B329" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C329">
@@ -4724,7 +4724,7 @@
     <row r="331">
       <c r="B331" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C331">
@@ -4776,7 +4776,7 @@
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C335">
@@ -4898,7 +4898,7 @@
     <row r="344">
       <c r="B344" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C344">
@@ -5002,7 +5002,7 @@
     <row r="352">
       <c r="B352" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C352">
@@ -5041,7 +5041,7 @@
     <row r="355">
       <c r="B355" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C355">
@@ -5093,7 +5093,7 @@
     <row r="359">
       <c r="B359" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C359">
@@ -5106,7 +5106,7 @@
     <row r="360">
       <c r="B360" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C360">
@@ -5119,7 +5119,7 @@
     <row r="361">
       <c r="B361" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C361">
@@ -5132,7 +5132,7 @@
     <row r="362">
       <c r="B362" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C362">
@@ -5145,7 +5145,7 @@
     <row r="363">
       <c r="B363" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C363">
@@ -5171,7 +5171,7 @@
     <row r="365">
       <c r="B365" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C365">
@@ -5223,7 +5223,7 @@
     <row r="369">
       <c r="B369" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C369">
@@ -5236,7 +5236,7 @@
     <row r="370">
       <c r="B370" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerrero</t>
+          <t>Santiago Tulantepec De Lugo Guerrero</t>
         </is>
       </c>
       <c r="C370">
@@ -5275,7 +5275,7 @@
     <row r="373">
       <c r="B373" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C373">
@@ -5288,7 +5288,7 @@
     <row r="374">
       <c r="B374" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C374">
@@ -5301,7 +5301,7 @@
     <row r="375">
       <c r="B375" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C375">
@@ -5327,7 +5327,7 @@
     <row r="377">
       <c r="B377" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C377">
@@ -5379,7 +5379,7 @@
     <row r="381">
       <c r="B381" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C381">
@@ -5392,7 +5392,7 @@
     <row r="382">
       <c r="B382" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C382">
@@ -5431,7 +5431,7 @@
     <row r="385">
       <c r="B385" t="inlineStr">
         <is>
-          <t>Zapotlán de Juárez</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C385">
@@ -5501,7 +5501,7 @@
     <row r="390">
       <c r="B390" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C390">
@@ -5514,7 +5514,7 @@
     <row r="391">
       <c r="B391" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C391">
@@ -5579,7 +5579,7 @@
     <row r="396">
       <c r="B396" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C396">
@@ -5592,7 +5592,7 @@
     <row r="397">
       <c r="B397" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C397">
@@ -5709,7 +5709,7 @@
     <row r="406">
       <c r="B406" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C406">
@@ -5761,7 +5761,7 @@
     <row r="410">
       <c r="B410" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C410">
@@ -5826,7 +5826,7 @@
     <row r="415">
       <c r="B415" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C415">
@@ -5904,7 +5904,7 @@
     <row r="421">
       <c r="B421" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C421">
@@ -5917,7 +5917,7 @@
     <row r="422">
       <c r="B422" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C422">
@@ -5943,7 +5943,7 @@
     <row r="424">
       <c r="B424" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C424">
@@ -5982,7 +5982,7 @@
     <row r="427">
       <c r="B427" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C427">
@@ -6021,7 +6021,7 @@
     <row r="430">
       <c r="B430" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C430">
@@ -6047,7 +6047,7 @@
     <row r="432">
       <c r="B432" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C432">
@@ -6138,7 +6138,7 @@
     <row r="439">
       <c r="B439" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C439">
@@ -6151,7 +6151,7 @@
     <row r="440">
       <c r="B440" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C440">
@@ -6216,7 +6216,7 @@
     <row r="445">
       <c r="B445" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C445">
@@ -6229,7 +6229,7 @@
     <row r="446">
       <c r="B446" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C446">
@@ -6255,7 +6255,7 @@
     <row r="448">
       <c r="B448" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C448">
@@ -6455,7 +6455,7 @@
     <row r="463">
       <c r="B463" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C463">
@@ -7118,7 +7118,7 @@
     <row r="514">
       <c r="B514" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C514">
@@ -7422,7 +7422,7 @@
     <row r="537">
       <c r="B537" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C537">
@@ -7448,7 +7448,7 @@
     <row r="539">
       <c r="B539" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C539">
@@ -7531,7 +7531,7 @@
     <row r="545">
       <c r="B545" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C545">
@@ -7570,7 +7570,7 @@
     <row r="548">
       <c r="B548" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C548">
@@ -7835,7 +7835,7 @@
     <row r="568">
       <c r="B568" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C568">
@@ -7879,7 +7879,7 @@
     <row r="571">
       <c r="B571" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C571">
@@ -7892,7 +7892,7 @@
     <row r="572">
       <c r="B572" t="inlineStr">
         <is>
-          <t>Ayoquezco de Aldama</t>
+          <t>Ayoquezco De Aldama</t>
         </is>
       </c>
       <c r="C572">
@@ -7918,7 +7918,7 @@
     <row r="574">
       <c r="B574" t="inlineStr">
         <is>
-          <t>Cuyamecalco Villa de Zaragoza</t>
+          <t>Cuyamecalco Villa De Zaragoza</t>
         </is>
       </c>
       <c r="C574">
@@ -7931,7 +7931,7 @@
     <row r="575">
       <c r="B575" t="inlineStr">
         <is>
-          <t>Guevea de Humboldt</t>
+          <t>Guevea De Humboldt</t>
         </is>
       </c>
       <c r="C575">
@@ -7944,7 +7944,7 @@
     <row r="576">
       <c r="B576" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C576">
@@ -7957,7 +7957,7 @@
     <row r="577">
       <c r="B577" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C577">
@@ -7970,7 +7970,7 @@
     <row r="578">
       <c r="B578" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C578">
@@ -7983,7 +7983,7 @@
     <row r="579">
       <c r="B579" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C579">
@@ -7996,7 +7996,7 @@
     <row r="580">
       <c r="B580" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C580">
@@ -8048,7 +8048,7 @@
     <row r="584">
       <c r="B584" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C584">
@@ -8061,7 +8061,7 @@
     <row r="585">
       <c r="B585" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C585">
@@ -8074,7 +8074,7 @@
     <row r="586">
       <c r="B586" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C586">
@@ -8126,7 +8126,7 @@
     <row r="590">
       <c r="B590" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C590">
@@ -8178,7 +8178,7 @@
     <row r="594">
       <c r="B594" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C594">
@@ -8334,7 +8334,7 @@
     <row r="606">
       <c r="B606" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C606">
@@ -8711,7 +8711,7 @@
     <row r="635">
       <c r="B635" t="inlineStr">
         <is>
-          <t>Heroica Villa Tezoatlán de Segura y Luna, Cuna de la Independencia de Oaxaca</t>
+          <t>Heroica Villa Tezoatlán De Segura Y Luna, Cuna De La Independencia De Oaxaca</t>
         </is>
       </c>
       <c r="C635">
@@ -8724,7 +8724,7 @@
     <row r="636">
       <c r="B636" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C636">
@@ -8737,7 +8737,7 @@
     <row r="637">
       <c r="B637" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C637">
@@ -8750,7 +8750,7 @@
     <row r="638">
       <c r="B638" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C638">
@@ -8763,7 +8763,7 @@
     <row r="639">
       <c r="B639" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C639">
@@ -9002,7 +9002,7 @@
     <row r="657">
       <c r="B657" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C657">
@@ -9054,7 +9054,7 @@
     <row r="661">
       <c r="B661" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C661">
@@ -9171,7 +9171,7 @@
     <row r="670">
       <c r="B670" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C670">
@@ -9184,7 +9184,7 @@
     <row r="671">
       <c r="B671" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C671">
@@ -9262,7 +9262,7 @@
     <row r="677">
       <c r="B677" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C677">
@@ -9275,7 +9275,7 @@
     <row r="678">
       <c r="B678" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C678">
@@ -9314,7 +9314,7 @@
     <row r="681">
       <c r="B681" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C681">
@@ -9353,7 +9353,7 @@
     <row r="684">
       <c r="B684" t="inlineStr">
         <is>
-          <t>Xochitlán de Vicente Suárez</t>
+          <t>Xochitlán De Vicente Suárez</t>
         </is>
       </c>
       <c r="C684">
@@ -9397,7 +9397,7 @@
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C687">
@@ -9423,7 +9423,7 @@
     <row r="689">
       <c r="B689" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C689">
@@ -9449,7 +9449,7 @@
     <row r="691">
       <c r="B691" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C691">
@@ -9462,7 +9462,7 @@
     <row r="692">
       <c r="B692" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C692">
@@ -9488,7 +9488,7 @@
     <row r="694">
       <c r="B694" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C694">
@@ -9514,7 +9514,7 @@
     <row r="696">
       <c r="B696" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C696">
@@ -9534,7 +9534,7 @@
         <v>68</v>
       </c>
       <c r="D697">
-        <v>0.009359944941500345</v>
+        <v>0.009359944941500343</v>
       </c>
     </row>
     <row r="698">
@@ -9693,7 +9693,7 @@
     <row r="709">
       <c r="B709" t="inlineStr">
         <is>
-          <t>Cerro de San Pedro</t>
+          <t>Cerro De San Pedro</t>
         </is>
       </c>
       <c r="C709">
@@ -9719,7 +9719,7 @@
     <row r="711">
       <c r="B711" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C711">
@@ -9784,7 +9784,7 @@
     <row r="716">
       <c r="B716" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C716">
@@ -9862,7 +9862,7 @@
     <row r="722">
       <c r="B722" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C722">
@@ -9914,7 +9914,7 @@
     <row r="726">
       <c r="B726" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C726">
@@ -9979,7 +9979,7 @@
     <row r="731">
       <c r="B731" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C731">
@@ -9992,7 +9992,7 @@
     <row r="732">
       <c r="B732" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C732">
@@ -10005,7 +10005,7 @@
     <row r="733">
       <c r="B733" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C733">
@@ -10857,7 +10857,7 @@
     <row r="797">
       <c r="B797" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C797">
@@ -10992,7 +10992,7 @@
     <row r="807">
       <c r="B807" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C807">
@@ -11018,7 +11018,7 @@
     <row r="809">
       <c r="B809" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C809">
@@ -11044,7 +11044,7 @@
     <row r="811">
       <c r="B811" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C811">
@@ -11179,7 +11179,7 @@
     <row r="821">
       <c r="B821" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C821">
@@ -11218,7 +11218,7 @@
     <row r="824">
       <c r="B824" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C824">
@@ -11296,7 +11296,7 @@
     <row r="830">
       <c r="B830" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C830">
@@ -11335,7 +11335,7 @@
     <row r="833">
       <c r="B833" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C833">
@@ -11426,7 +11426,7 @@
     <row r="840">
       <c r="B840" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C840">
@@ -11530,7 +11530,7 @@
     <row r="848">
       <c r="B848" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C848">
@@ -11608,7 +11608,7 @@
     <row r="854">
       <c r="B854" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C854">
@@ -11647,7 +11647,7 @@
     <row r="857">
       <c r="B857" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C857">
@@ -11686,7 +11686,7 @@
     <row r="860">
       <c r="B860" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C860">
@@ -11699,7 +11699,7 @@
     <row r="861">
       <c r="B861" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C861">
@@ -11803,7 +11803,7 @@
     <row r="869">
       <c r="B869" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C869">
@@ -11829,7 +11829,7 @@
     <row r="871">
       <c r="B871" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C871">
@@ -11894,7 +11894,7 @@
     <row r="876">
       <c r="B876" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C876">
@@ -11907,7 +11907,7 @@
     <row r="877">
       <c r="B877" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C877">
@@ -12089,7 +12089,7 @@
     <row r="891">
       <c r="B891" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C891">
@@ -12541,7 +12541,7 @@
     <row r="925">
       <c r="B925" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C925">
@@ -12554,7 +12554,7 @@
     <row r="926">
       <c r="B926" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C926">
@@ -12684,7 +12684,7 @@
     <row r="936">
       <c r="B936" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C936">
@@ -12697,7 +12697,7 @@
     <row r="937">
       <c r="B937" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C937">
@@ -12749,7 +12749,7 @@
     <row r="941">
       <c r="B941" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C941">
@@ -12835,41 +12835,6 @@
       </c>
       <c r="D947">
         <v>1</v>
-      </c>
-    </row>
-    <row r="949">
-      <c r="A949" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 814,748</t>
-        </is>
-      </c>
-    </row>
-    <row r="950">
-      <c r="A950" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="951">
-      <c r="A951" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="952">
-      <c r="A952" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="953">
-      <c r="A953" t="inlineStr">
-        <is>
-          <t>Marzo de 2017</t>
-        </is>
       </c>
     </row>
   </sheetData>
